--- a/kanji_list.xlsx
+++ b/kanji_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>毎日</t>
   </si>
@@ -121,9 +121,6 @@
     <t>KANJI</t>
   </si>
   <si>
-    <t>ROMAJI</t>
-  </si>
-  <si>
     <t>Время</t>
   </si>
   <si>
@@ -143,6 +140,81 @@
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>時々</t>
+  </si>
+  <si>
+    <t>いつも</t>
+  </si>
+  <si>
+    <t>よく</t>
+  </si>
+  <si>
+    <t>ときどき</t>
+  </si>
+  <si>
+    <t>たまに</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>periodically</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>ежедневно</t>
+  </si>
+  <si>
+    <t>переодически</t>
+  </si>
+  <si>
+    <t>иногда</t>
+  </si>
+  <si>
+    <t>часто</t>
+  </si>
+  <si>
+    <t>всегда</t>
+  </si>
+  <si>
+    <t>недавно</t>
+  </si>
+  <si>
+    <t>скоро</t>
+  </si>
+  <si>
+    <t>сейчас</t>
+  </si>
+  <si>
+    <t>вчера</t>
+  </si>
+  <si>
+    <t>завтра</t>
+  </si>
+  <si>
+    <t>сегодня</t>
+  </si>
+  <si>
+    <t>ежегодно</t>
+  </si>
+  <si>
+    <t>ежемесячно</t>
+  </si>
+  <si>
+    <t>еженедельно</t>
   </si>
 </sst>
 </file>
@@ -172,7 +244,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +275,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,6 +330,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -540,21 +636,24 @@
     <col min="2" max="16384" width="24.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -562,13 +661,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -576,13 +678,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -590,13 +695,16 @@
         <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -604,27 +712,33 @@
         <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -632,13 +746,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -646,13 +763,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -660,13 +780,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -674,13 +797,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -688,13 +814,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -702,13 +831,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -716,13 +848,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -730,13 +865,16 @@
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -744,13 +882,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -758,13 +899,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -772,13 +916,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -786,13 +933,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -800,13 +950,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -814,13 +967,16 @@
         <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -828,10 +984,98 @@
         <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/kanji_list.xlsx
+++ b/kanji_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="487">
   <si>
     <t>everyday</t>
   </si>
@@ -61,9 +61,6 @@
     <t>recently</t>
   </si>
   <si>
-    <t>KANJI</t>
-  </si>
-  <si>
     <t>いつも</t>
   </si>
   <si>
@@ -85,12 +82,6 @@
     <t>periodically</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
     <t>ежедневно</t>
   </si>
   <si>
@@ -220,61 +211,1285 @@
     <t>十</t>
   </si>
   <si>
-    <t>毎日 (まいにち)</t>
-  </si>
-  <si>
-    <t>毎週 (まいしゅ)</t>
-  </si>
-  <si>
-    <t>毎月 (まいつき)</t>
-  </si>
-  <si>
-    <t>毎年 (まいとし)</t>
-  </si>
-  <si>
-    <t>今日 (きょ)</t>
-  </si>
-  <si>
-    <t>明日 (あした)</t>
-  </si>
-  <si>
-    <t>昨日 (きの)</t>
-  </si>
-  <si>
-    <t>今 (いま)</t>
-  </si>
-  <si>
-    <t>直ぐ (すぐ)</t>
-  </si>
-  <si>
-    <t>前日 (ぜんじつ)</t>
-  </si>
-  <si>
-    <t>時々 (ときどき)</t>
-  </si>
-  <si>
-    <t>週 (しゅ)</t>
-  </si>
-  <si>
-    <t>月曜日 (げつよび)</t>
-  </si>
-  <si>
-    <t>火曜日 (かよび)</t>
-  </si>
-  <si>
-    <t>水曜日 (すいよび)</t>
-  </si>
-  <si>
-    <t>木曜日 (もくよび)</t>
-  </si>
-  <si>
-    <t>金曜日 (きんよに)</t>
-  </si>
-  <si>
-    <t>土曜日 (どよび)</t>
-  </si>
-  <si>
-    <t>日曜日 (にちよび)</t>
+    <t>KANJI DEF</t>
+  </si>
+  <si>
+    <t>EN DEF</t>
+  </si>
+  <si>
+    <t>KANA DEF</t>
+  </si>
+  <si>
+    <t>RU DEF</t>
+  </si>
+  <si>
+    <t>KANA N5</t>
+  </si>
+  <si>
+    <t>まいにち</t>
+  </si>
+  <si>
+    <t>まいしゅ</t>
+  </si>
+  <si>
+    <t>まいつき</t>
+  </si>
+  <si>
+    <t>まいとし</t>
+  </si>
+  <si>
+    <t>きょ</t>
+  </si>
+  <si>
+    <t>あした</t>
+  </si>
+  <si>
+    <t>きの</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>すぐ</t>
+  </si>
+  <si>
+    <t>ぜんじつ</t>
+  </si>
+  <si>
+    <t>ときどき</t>
+  </si>
+  <si>
+    <t>しゅ</t>
+  </si>
+  <si>
+    <t>げつよび</t>
+  </si>
+  <si>
+    <t>かよび</t>
+  </si>
+  <si>
+    <t>すいよび</t>
+  </si>
+  <si>
+    <t>毎月</t>
+  </si>
+  <si>
+    <t>毎週</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>毎年</t>
+  </si>
+  <si>
+    <t>今日</t>
+  </si>
+  <si>
+    <t>明日</t>
+  </si>
+  <si>
+    <t>昨日</t>
+  </si>
+  <si>
+    <t>前日</t>
+  </si>
+  <si>
+    <t>時々</t>
+  </si>
+  <si>
+    <t>直ぐ</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>もくよび</t>
+  </si>
+  <si>
+    <t>きんよに</t>
+  </si>
+  <si>
+    <t>どよび</t>
+  </si>
+  <si>
+    <t>にちよび</t>
+  </si>
+  <si>
+    <t>週</t>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>イチ | ひとつ</t>
+  </si>
+  <si>
+    <t>ニ | ふたつ</t>
+  </si>
+  <si>
+    <t>サン | みっつ</t>
+  </si>
+  <si>
+    <t>シ | よっつ</t>
+  </si>
+  <si>
+    <t>ゴ | いつつ</t>
+  </si>
+  <si>
+    <t>ロク | むっつ</t>
+  </si>
+  <si>
+    <t>シチ | ななつ</t>
+  </si>
+  <si>
+    <t>ハチ | やっつ</t>
+  </si>
+  <si>
+    <t>キュー | ここのつ</t>
+  </si>
+  <si>
+    <t>ジュー | とお</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>сотня</t>
+  </si>
+  <si>
+    <t>тысяча</t>
+  </si>
+  <si>
+    <t>セン | ち</t>
+  </si>
+  <si>
+    <t>ヒャク | もも</t>
+  </si>
+  <si>
+    <t>マン、バン</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>みる</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <t>видеть</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>человек</t>
+  </si>
+  <si>
+    <t>to appear</t>
+  </si>
+  <si>
+    <t>появляться</t>
+  </si>
+  <si>
+    <t>ニチ、ジツ | ひ</t>
+  </si>
+  <si>
+    <t>day, sun</t>
+  </si>
+  <si>
+    <t>день, солнце</t>
+  </si>
+  <si>
+    <t>くる</t>
+  </si>
+  <si>
+    <t>でる | だす</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>приходить</t>
+  </si>
+  <si>
+    <t>シ | こ</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>ребенок</t>
+  </si>
+  <si>
+    <t>ダイ、タイ | おおきい</t>
+  </si>
+  <si>
+    <t>ジョー | うえ、あげる</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>большой</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>верх</t>
+  </si>
+  <si>
+    <t>ブン, ふん</t>
+  </si>
+  <si>
+    <t>minute, percent</t>
+  </si>
+  <si>
+    <t>минута, процент</t>
+  </si>
+  <si>
+    <t>チュー | なか</t>
+  </si>
+  <si>
+    <t>middle, inside</t>
+  </si>
+  <si>
+    <t>середина, внутри</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>десять</t>
+  </si>
+  <si>
+    <t>девять</t>
+  </si>
+  <si>
+    <t>восемь</t>
+  </si>
+  <si>
+    <t>семь</t>
+  </si>
+  <si>
+    <t>шесть</t>
+  </si>
+  <si>
+    <t>пять</t>
+  </si>
+  <si>
+    <t>четыре</t>
+  </si>
+  <si>
+    <t>три</t>
+  </si>
+  <si>
+    <t>два</t>
+  </si>
+  <si>
+    <t>один</t>
+  </si>
+  <si>
+    <t>ten thousand</t>
+  </si>
+  <si>
+    <t>десять тысяч</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>気</t>
+  </si>
+  <si>
+    <t>женщина</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>time, hour</t>
+  </si>
+  <si>
+    <t>wind, spirit</t>
+  </si>
+  <si>
+    <t>キ</t>
+  </si>
+  <si>
+    <t>ホン | もと</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>book, origin</t>
+  </si>
+  <si>
+    <t>ジ | とき</t>
+  </si>
+  <si>
+    <t>ジョ | おんな</t>
+  </si>
+  <si>
+    <t>シュ | て</t>
+  </si>
+  <si>
+    <t>いう</t>
+  </si>
+  <si>
+    <t>カン | あいだ</t>
+  </si>
+  <si>
+    <t>いきる</t>
+  </si>
+  <si>
+    <t>to live</t>
+  </si>
+  <si>
+    <t>なに、なん</t>
+  </si>
+  <si>
+    <t>いく</t>
+  </si>
+  <si>
+    <t>идти</t>
+  </si>
+  <si>
+    <t>что</t>
+  </si>
+  <si>
+    <t>жить</t>
+  </si>
+  <si>
+    <t>промежуток</t>
+  </si>
+  <si>
+    <t>рука</t>
+  </si>
+  <si>
+    <t>воздух, дух</t>
+  </si>
+  <si>
+    <t>время, час</t>
+  </si>
+  <si>
+    <t>книга, начали</t>
+  </si>
+  <si>
+    <t>to say, to talk</t>
+  </si>
+  <si>
+    <t>сказать, говорить</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>立</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>学</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>year, age</t>
+  </si>
+  <si>
+    <t>before, forward</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>たつ</t>
+  </si>
+  <si>
+    <t>した</t>
+  </si>
+  <si>
+    <t>ショー | ちいさい</t>
+  </si>
+  <si>
+    <t>コン | いま</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>год, возраст</t>
+  </si>
+  <si>
+    <t>до, спереди</t>
+  </si>
+  <si>
+    <t>низ</t>
+  </si>
+  <si>
+    <t>стоять</t>
+  </si>
+  <si>
+    <t>маленький</t>
+  </si>
+  <si>
+    <t>to stay</t>
+  </si>
+  <si>
+    <t>ゼン | まえ</t>
+  </si>
+  <si>
+    <t>ネン | とし</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>to enter</t>
+  </si>
+  <si>
+    <t>входить</t>
+  </si>
+  <si>
+    <t>ゲツ、ガツ | つき</t>
+  </si>
+  <si>
+    <t>モク | め</t>
+  </si>
+  <si>
+    <t>ガク | まなぶ</t>
+  </si>
+  <si>
+    <t>to study</t>
+  </si>
+  <si>
+    <t>かく</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>month, moon</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴ、コ | のち </t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>месяц, луна</t>
+  </si>
+  <si>
+    <t>глаз</t>
+  </si>
+  <si>
+    <t>учиться</t>
+  </si>
+  <si>
+    <t>писать</t>
+  </si>
+  <si>
+    <t>после</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>聞</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>会</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>to hear</t>
+  </si>
+  <si>
+    <t>a bit</t>
+  </si>
+  <si>
+    <t>language, to talk</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>サン | やま</t>
+  </si>
+  <si>
+    <t>ワ | はなす</t>
+  </si>
+  <si>
+    <t>ショー</t>
+  </si>
+  <si>
+    <t>long, to grow</t>
+  </si>
+  <si>
+    <t>チョー | ながい</t>
+  </si>
+  <si>
+    <t>きく</t>
+  </si>
+  <si>
+    <t>スイ | みず</t>
+  </si>
+  <si>
+    <t>コー | くち</t>
+  </si>
+  <si>
+    <t>くう, くうな</t>
+  </si>
+  <si>
+    <t>sky, empty</t>
+  </si>
+  <si>
+    <t>メイ、ミョー | な</t>
+  </si>
+  <si>
+    <t>カイ | あう</t>
+  </si>
+  <si>
+    <t>ダン、ナン | おとこ</t>
+  </si>
+  <si>
+    <t>しろい</t>
+  </si>
+  <si>
+    <t>そとに</t>
+  </si>
+  <si>
+    <t>ドー | みち</t>
+  </si>
+  <si>
+    <t>road, way</t>
+  </si>
+  <si>
+    <t>コク | くに</t>
+  </si>
+  <si>
+    <t>ニイ | あたらしい</t>
+  </si>
+  <si>
+    <t>モク、ボク | き</t>
+  </si>
+  <si>
+    <t>дерево</t>
+  </si>
+  <si>
+    <t>новый</t>
+  </si>
+  <si>
+    <t>страна</t>
+  </si>
+  <si>
+    <t>дорога, путь</t>
+  </si>
+  <si>
+    <t>снаружи</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>мужчина</t>
+  </si>
+  <si>
+    <t>встреча</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>воздух, пустой</t>
+  </si>
+  <si>
+    <t>рот</t>
+  </si>
+  <si>
+    <t>вода</t>
+  </si>
+  <si>
+    <t>слышать</t>
+  </si>
+  <si>
+    <t>длинный, расти</t>
+  </si>
+  <si>
+    <t>немного</t>
+  </si>
+  <si>
+    <t>язык, говорить</t>
+  </si>
+  <si>
+    <t>гора</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>タ | おおい</t>
+  </si>
+  <si>
+    <t>a lot</t>
+  </si>
+  <si>
+    <t>много</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>コー</t>
+  </si>
+  <si>
+    <t>コー | たかい</t>
+  </si>
+  <si>
+    <t>キン | かね</t>
+  </si>
+  <si>
+    <t>あし</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>gold, money</t>
+  </si>
+  <si>
+    <t>золото, деньги</t>
+  </si>
+  <si>
+    <t>нога</t>
+  </si>
+  <si>
+    <t>high, expensive</t>
+  </si>
+  <si>
+    <t>высокий, дорогой</t>
+  </si>
+  <si>
+    <t>母</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>мать</t>
+  </si>
+  <si>
+    <t>父</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>отец</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>food, to eat</t>
+  </si>
+  <si>
+    <t>ショク | たべる</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>セン | かわ</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>река</t>
+  </si>
+  <si>
+    <t>еда, кушать</t>
+  </si>
+  <si>
+    <t>社</t>
+  </si>
+  <si>
+    <t>シャ</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>компания</t>
+  </si>
+  <si>
+    <t>校</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>школа</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>カ | はな</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>цветы</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>くるま</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>машина</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>コ | ふるい</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>カ | ひ</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>поверхность</t>
+  </si>
+  <si>
+    <t>огонь</t>
+  </si>
+  <si>
+    <t>старый</t>
+  </si>
+  <si>
+    <t>ド | つち</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>読</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>友</t>
+  </si>
+  <si>
+    <t>とも</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>セイ | にし</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>ユー | みぎ</t>
+  </si>
+  <si>
+    <t>サ | ひだり</t>
+  </si>
+  <si>
+    <t>よむ</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>ハン | なかば</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>アン | やすい</t>
+  </si>
+  <si>
+    <t>トー | ひがし</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>восток</t>
+  </si>
+  <si>
+    <t>cheap, calm</t>
+  </si>
+  <si>
+    <t>дешевый, спокойный</t>
+  </si>
+  <si>
+    <t>половина</t>
+  </si>
+  <si>
+    <t>читать</t>
+  </si>
+  <si>
+    <t>право</t>
+  </si>
+  <si>
+    <t>лево</t>
+  </si>
+  <si>
+    <t>запад</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>電</t>
+  </si>
+  <si>
+    <t>デン</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>электричество</t>
+  </si>
+  <si>
+    <t>店</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>テン | みせ</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>магазин</t>
+  </si>
+  <si>
+    <t>ウ | あめ</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>дождь</t>
+  </si>
+  <si>
+    <t>ホク | きた</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>買</t>
+  </si>
+  <si>
+    <t>かう</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>покупать</t>
+  </si>
+  <si>
+    <t>север</t>
+  </si>
+  <si>
+    <t>耳</t>
+  </si>
+  <si>
+    <t>ジ | みみ</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>ナン | みなみ</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>юг</t>
+  </si>
+  <si>
+    <t>ухо</t>
+  </si>
+  <si>
+    <t>円</t>
+  </si>
+  <si>
+    <t>エン | まる</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>круглый</t>
+  </si>
+  <si>
+    <t>毎</t>
+  </si>
+  <si>
+    <t>マイ</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>каждый</t>
+  </si>
+  <si>
+    <t>飲</t>
+  </si>
+  <si>
+    <t>のむ</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>пить</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>やすむ</t>
+  </si>
+  <si>
+    <t>to rest</t>
+  </si>
+  <si>
+    <t>отдыхать</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>ギョ | さかな</t>
+  </si>
+  <si>
+    <t>рыба</t>
+  </si>
+  <si>
+    <t>午</t>
+  </si>
+  <si>
+    <t>ゴ</t>
+  </si>
+  <si>
+    <t>midday</t>
+  </si>
+  <si>
+    <t>полдень</t>
+  </si>
+  <si>
+    <t>エキ</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>railway station</t>
+  </si>
+  <si>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>シュー</t>
   </si>
 </sst>
 </file>
@@ -354,11 +1569,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,313 +1858,1712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="24.5703125" style="3"/>
-    <col min="4" max="4" width="24.5703125" style="2"/>
-    <col min="5" max="16384" width="24.5703125" style="3"/>
+    <col min="1" max="1" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="2"/>
+    <col min="4" max="5" width="24.5703125" style="1"/>
+    <col min="6" max="6" width="48.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="24.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="H101" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
